--- a/dee-effes/evidence.xlsx
+++ b/dee-effes/evidence.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26307"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BC89DD6-7A3C-4694-AF9B-AB721A97F36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31235FB9-CDD3-4797-84F3-612DE01679FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <t>omniflix106lu2m62qk83v0j3tvw7053yjrkqqlnz4kurmh</t>
   </si>
   <si>
-    <t>Pippin Ain't Easy#0669</t>
+    <t>GameOfNFTs | blockscape#1151</t>
   </si>
   <si>
     <t>none</t>
@@ -483,7 +483,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/dee-effes/evidence.xlsx
+++ b/dee-effes/evidence.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31235FB9-CDD3-4797-84F3-612DE01679FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBA96ABB-F2CE-48D4-808B-0C9F2B96FFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>TeamName</t>
   </si>
@@ -90,37 +90,55 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>5E0341B26070B851A9179F1660D4DD5CCAA551EF9336BCA227734B5D9F8685B6</t>
-  </si>
-  <si>
-    <t>blcsClass</t>
+    <t>444971A9CE8D7F91F05F790791C437569F7920C73B0860D7FA481A53DC26B6CB</t>
+  </si>
+  <si>
+    <t>blcsBenni001</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>3FE7E893F9DA60CCE309D9A951343698D11E275501F8A691F64CA62B303D0E03</t>
-  </si>
-  <si>
-    <t>blcsNFTgregy001</t>
-  </si>
-  <si>
-    <t>B3F292FF3EFD8345D79754BF7C59ED2B89C2CD091CC33451E594B50FE1489629</t>
-  </si>
-  <si>
-    <t>blcsNFTbenko001</t>
+    <t>81C700D246F57039F3BDC16B0DA0C7CFF937356271269FD8CF50A87316923F9D</t>
+  </si>
+  <si>
+    <t>blcsNFTBenni002</t>
+  </si>
+  <si>
+    <t>4AED26214C9A72F97E381AEB3385199F14BDA6324448FAB0029202D092C80018</t>
+  </si>
+  <si>
+    <t>blcsNFTmars001</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>C7ED2517C6BCC27D42FBC337D3F6EDF7BC5B53E1801EB2C218E0B78C712D4EA6</t>
-  </si>
-  <si>
-    <t>stars1qex20hgqvv4swrhdgxj8lt2da3g726xprutc7q9lhuwltsw59ptshtqty6</t>
+    <t>5F0E44A16797DD129730B38EFA84F240C3D8EA8A82384DBBB7BFBDCA2AA4B916</t>
+  </si>
+  <si>
+    <t>stars1yxv9njz6nfpwxtxzfawe5a2mv7z9gu9hl23zhu7g5c4jaxh7y4nqjkav4n</t>
   </si>
   <si>
     <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>1A0C443A20A619C1DE7858139C0B13FA77A4CFA463D7AF035C67A65B5FD318E1</t>
+  </si>
+  <si>
+    <t>ibc/6EAF424647FC10605DA6FFF50CF3FD26D3AA49495FA211FE0551F84DD9E79C7F</t>
+  </si>
+  <si>
+    <t>blcsNFTBenni005</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>B1FC2856C78D496EE0F4541EA15FCE2DAC5D630E2C8047C59A27CB02726241BA</t>
+  </si>
+  <si>
+    <t>EA84CC14BE7E279EC05193B3FDD6FBBBB55702D16BF654C7EBA6E6D6CF7AA736</t>
   </si>
 </sst>
 </file>
@@ -482,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -560,7 +578,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -594,12 +612,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="72.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -646,7 +665,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -691,13 +710,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107752EB-189D-4603-881D-E5DB1965AE2D}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="71.42578125" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -713,6 +738,20 @@
         <v>25</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -720,13 +759,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BEB37F-1CAC-4981-B421-D7E70CDD6ADB}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="72" customWidth="1"/>
+    <col min="2" max="2" width="67.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -742,6 +786,20 @@
         <v>25</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -749,13 +807,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6814D2-7F01-4E99-BCAC-FCF637056EDF}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="73" customWidth="1"/>
+    <col min="2" max="2" width="73.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -771,6 +835,20 @@
         <v>25</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dee-effes/evidence.xlsx
+++ b/dee-effes/evidence.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26322"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBA96ABB-F2CE-48D4-808B-0C9F2B96FFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79F275D1-7C36-4D40-A134-ECDB0A1EBF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="20" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,22 @@
     <sheet name="A4" sheetId="5" r:id="rId5"/>
     <sheet name="A5" sheetId="6" r:id="rId6"/>
     <sheet name="A6" sheetId="7" r:id="rId7"/>
+    <sheet name="A7" sheetId="8" r:id="rId8"/>
+    <sheet name="A8" sheetId="9" r:id="rId9"/>
+    <sheet name="A9" sheetId="10" r:id="rId10"/>
+    <sheet name="A10" sheetId="11" r:id="rId11"/>
+    <sheet name="A11" sheetId="12" r:id="rId12"/>
+    <sheet name="A12" sheetId="13" r:id="rId13"/>
+    <sheet name="A13" sheetId="14" r:id="rId14"/>
+    <sheet name="A14" sheetId="15" r:id="rId15"/>
+    <sheet name="A15" sheetId="16" r:id="rId16"/>
+    <sheet name="A16" sheetId="17" r:id="rId17"/>
+    <sheet name="A17" sheetId="18" r:id="rId18"/>
+    <sheet name="A18" sheetId="19" r:id="rId19"/>
+    <sheet name="A19" sheetId="20" r:id="rId20"/>
+    <sheet name="A20" sheetId="21" r:id="rId21"/>
+    <sheet name="B1" sheetId="22" r:id="rId22"/>
+    <sheet name="B2" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="78">
   <si>
     <t>TeamName</t>
   </si>
@@ -105,10 +121,10 @@
     <t>blcsNFTBenni002</t>
   </si>
   <si>
-    <t>4AED26214C9A72F97E381AEB3385199F14BDA6324448FAB0029202D092C80018</t>
-  </si>
-  <si>
-    <t>blcsNFTmars001</t>
+    <t>F978315060AFF937CF9BBFA7D86C5C99B04F602299C271AD48D337AEE47A1FBB</t>
+  </si>
+  <si>
+    <t>blcsNFTBenni005</t>
   </si>
   <si>
     <t>ChainID</t>
@@ -129,9 +145,6 @@
     <t>ibc/6EAF424647FC10605DA6FFF50CF3FD26D3AA49495FA211FE0551F84DD9E79C7F</t>
   </si>
   <si>
-    <t>blcsNFTBenni005</t>
-  </si>
-  <si>
     <t>uptick_7000-2</t>
   </si>
   <si>
@@ -139,19 +152,157 @@
   </si>
   <si>
     <t>EA84CC14BE7E279EC05193B3FDD6FBBBB55702D16BF654C7EBA6E6D6CF7AA736</t>
+  </si>
+  <si>
+    <t>ibc/0B7F0D8ED766C5E0913081B44DE6694A08C976BA2FB21AFB233A6B6A83EACE3E</t>
+  </si>
+  <si>
+    <t>blcsNftR2001</t>
+  </si>
+  <si>
+    <t>ibc/7463908E0129519F6A89A7BDEE498BA717BEFB55D860B7CFE77A0FE115FF21E8</t>
+  </si>
+  <si>
+    <t>blcsNftR2002</t>
+  </si>
+  <si>
+    <t>ibc/0F2DC7B473F7D49098145F542F351E61B3989BC6DE0CF7E57DD718B89261F48C</t>
+  </si>
+  <si>
+    <t>blcsNftR2003</t>
+  </si>
+  <si>
+    <t>04ECE3C28E9FFF4C2A5519B5988FCBA66EB776704722BD8B5BD8F66C674892C9</t>
+  </si>
+  <si>
+    <t>blcsNftR2004</t>
+  </si>
+  <si>
+    <t>4D5827CE70E5561689119DEFE99F25600939819DFFB6676C38D0947E00BD7441</t>
+  </si>
+  <si>
+    <t>blcsNftR2005</t>
+  </si>
+  <si>
+    <t>B7BAB60AFD93B8B288900AC65E1869726DD73C4BE5EF0CFF98A0AE192002DFE0</t>
+  </si>
+  <si>
+    <t>blcsNftR2006</t>
+  </si>
+  <si>
+    <t>ChainId</t>
+  </si>
+  <si>
+    <t>A808DDF31515E6DBE6F6CD9A041CE7469F9001A3699D25CA2BA02346F4A36CED</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>3F0920A84F66940DFB4EB4DC1E44AA161E1AA84422E8BB0E06D0810E882ADE9E</t>
+  </si>
+  <si>
+    <t>14D270BEE3C08A999D90AEB6F18A0A52B24C76E82D4D4CAA9B45B62A2005E5AD</t>
+  </si>
+  <si>
+    <t>E15D720FED55C06284BE4F81933C5A52D47A4D0CC544BB49A290D7207F1A1D94</t>
+  </si>
+  <si>
+    <t>A4647F2B4DE8ABEE535CE22BC30E7C9F7A5F3578FF6543516BD56D3B36E6C079</t>
+  </si>
+  <si>
+    <t>669A747278570B0D47799B092EE93BFAD5ED2345C5075493CAFEFCB1D6536478</t>
+  </si>
+  <si>
+    <t>DFA180E4CA192F93393B7B427B82BCB510C1C955B94145C4408A770FFAB2BF8E</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>9CE536365FC4CD836BB455B305E851DF75407FA44517E2F3A3F07463F627ABD3</t>
+  </si>
+  <si>
+    <t>8C3786A3CB528C1C217FC3BC4F4543F4E951BB7E45E6061D8820BD9D4BFE0FC2</t>
+  </si>
+  <si>
+    <t>BE0E311628A03CBEDB770DFCCF13AE2AB13091B8D8EEE80DEC7DB0D408B06A8A</t>
+  </si>
+  <si>
+    <t>F5801637B3DE29993C4516202F2F7C72ACC20CCCDEB3568295AE33540CCF3C33</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>5E6D02AC3426156ADF9CB58BEB11FA1E54346C489EBA586B150AD35DC96C516E</t>
+  </si>
+  <si>
+    <t>AABAD1DFA390D98111F5C92BD8E917B8DAD2F76D17056E32EA46CACCDA5DF47D</t>
+  </si>
+  <si>
+    <t>021BB91829F99C140C20A7EC43254F4E3C16B9AD37AC01A21ACDBF21E2AA4967</t>
+  </si>
+  <si>
+    <t>8ABDAC5B78AF0FD369B0826BFBE9539F3E99AC3F7AB203D7BE414489999F05CF</t>
+  </si>
+  <si>
+    <t>7B032DEB2F622BF1FA11B1C72FFB622AD252AFD9955F2123A642103667C29D09</t>
+  </si>
+  <si>
+    <t>583249702722158B0DFE7867F0483E9D1DBAFE7CBB70E28D3ABF40D41D9AD03C</t>
+  </si>
+  <si>
+    <t>727E124B4BFAD6ED2408719C751A1043D34D0D7BFE29B09F3DC2C4D015AFD83A</t>
+  </si>
+  <si>
+    <t>0E8C6D5C1A1AFEB0F35B7B41031B1973E88C318B65A01DE42234B419AD91D62B</t>
+  </si>
+  <si>
+    <t>D335FE6196ACFC9C0E9B3B705764465036200E20AA8386421F9EC63C5BE9D1AB</t>
+  </si>
+  <si>
+    <t>7D8B953CE9CE438808C4B75B9E5AA6D7395387CC12D70079004CF63D2CC075D7</t>
+  </si>
+  <si>
+    <t>1DC094FC842B055484BA9261231E91B6F6F12782FA7D89C2E8B59EF4475E174B</t>
+  </si>
+  <si>
+    <t>761BB461B19E1F64E094715E6DEB46462199E634BA27AB5559AC67059C915361</t>
+  </si>
+  <si>
+    <t>3C56E7645A0078EE2955D8B88EBEC09D0E0EA7AE9D54A6A8E81114054A4F3667</t>
+  </si>
+  <si>
+    <t>C74E951F4E30224850050F30434B639532DE450E18F6527FC21517267391E834</t>
+  </si>
+  <si>
+    <t>620BE655CD99F9E53F77C71042E14EF4117DA2B2CE5DAC7AA0D0E05081A15E77</t>
+  </si>
+  <si>
+    <t>8B27EA076517EEA7FFB7BF3BC8E803D16D0F92609D7DD08134EDC19ED842349F</t>
+  </si>
+  <si>
+    <t>61809D967B77935C674BF9D1EFAD55FF53B65579E7710923F52796342F4105AF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -180,10 +331,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,6 +725,432 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9ECAD4-3282-4C35-A947-9A1FA5147038}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="73.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B5EFAC-8BC3-4D98-B700-BED2D9712B3B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="69.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7A5C21-E370-47A5-8A41-1B7A32F8535E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="69.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594C92F9-B732-4BD1-BC17-7A3AA8411178}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="70.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2666775-D01F-4054-AB71-E7E2B3FC60A4}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="71.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2D8F52-25FC-43E0-A8CA-7CB3D07C7520}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="71.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D1B106-B60E-4891-8616-93C0479F4871}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="71.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94EF8D38-A5AD-4ACB-A293-97655F479611}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="71.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77CC5BB-B346-49B7-963B-726794955E32}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="71.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE26D9F-B72D-4D7A-B9D3-F8B272BA1008}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="71.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD53854D-9B8E-4BF7-A119-3ED7C6C95E57}">
   <dimension ref="A1:B2"/>
@@ -607,12 +1185,182 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F857C1A-19DB-492A-AA13-80696DBFAD53}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="71.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF960347-10D8-49FB-8FC3-1F34BFD2492A}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="71.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28435BA6-8A89-4642-92E1-4F7865EB6ED5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FD0D9E-9B15-4E18-ADD8-3A484185483E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABB9022-4100-4508-9693-A5FB99EB8465}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -746,10 +1494,10 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -788,7 +1536,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -809,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6814D2-7F01-4E99-BCAC-FCF637056EDF}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -837,16 +1585,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE022227-7F71-4E8C-8D76-76BF0D5DA116}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="74.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E34FB4-72B6-403E-A1BE-A4DD8C1BBC16}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="73" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
